--- a/xlsx/交易成本_intext.xlsx
+++ b/xlsx/交易成本_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
   <si>
     <t>交易成本</t>
   </si>
@@ -29,7 +29,7 @@
     <t>经济学</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_交易成本</t>
+    <t>政策_政策_维基百科_交易成本</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%A4%E6%98%93</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E4%BA%94%E5%B8%B8</t>
   </si>
   <si>
-    <t>張五常</t>
+    <t>张五常</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E8%B4%B8%E6%98%93</t>
@@ -69,9 +69,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%A0%E4%BA%94%E5%B8%B8</t>
-  </si>
-  <si>
-    <t>张五常</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%B2%81%E5%AE%BE%E9%80%8A%E6%BC%82%E6%B5%81%E8%AE%B0</t>
@@ -716,7 +713,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G9" t="n">
         <v>3</v>
@@ -742,10 +739,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
@@ -771,10 +768,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -800,10 +797,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -829,10 +826,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
@@ -858,10 +855,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -887,10 +884,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>3</v>
@@ -916,10 +913,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
